--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E5CDE-BBD6-F543-8B28-7223B83899F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493FC4C-916B-2F46-9795-7DAF5EF5AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="151">
   <si>
     <t>super</t>
   </si>
@@ -435,6 +435,57 @@
   </si>
   <si>
     <t>hasSequenceBounds</t>
+  </si>
+  <si>
+    <t>linkstoRegion</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Links to a region of an image</t>
+  </si>
+  <si>
+    <t>Verweist auf eine Region in einem Bild</t>
+  </si>
+  <si>
+    <t>Se réfère à une région d’une image</t>
+  </si>
+  <si>
+    <t>numprops: 1</t>
+  </si>
+  <si>
+    <t>hasLinkToImage</t>
+  </si>
+  <si>
+    <t>StillImageRepresentation</t>
+  </si>
+  <si>
+    <t>link to image</t>
+  </si>
+  <si>
+    <t>hasLinkToResource</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>hasLinkToArchiveRepresentation</t>
+  </si>
+  <si>
+    <t>ArchiveRepresentation</t>
+  </si>
+  <si>
+    <t>hasLinkToMovingImageRepesentation</t>
+  </si>
+  <si>
+    <t>MovingImageRepresentation</t>
+  </si>
+  <si>
+    <t>hasLinkToAudioRepesentation</t>
+  </si>
+  <si>
+    <t>AudioRepresentation</t>
   </si>
 </sst>
 </file>
@@ -836,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1598,44 +1649,126 @@
         <v>131</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">

--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493FC4C-916B-2F46-9795-7DAF5EF5AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34627E8-04E2-3D44-9FE2-DFCCEA7A8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
   <si>
     <t>super</t>
   </si>
@@ -444,12 +444,6 @@
   </si>
   <si>
     <t>Links to a region of an image</t>
-  </si>
-  <si>
-    <t>Verweist auf eine Region in einem Bild</t>
-  </si>
-  <si>
-    <t>Se réfère à une région d’une image</t>
   </si>
   <si>
     <t>numprops: 1</t>
@@ -889,7 +883,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1662,31 +1656,25 @@
       <c r="D21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="N21" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1699,16 +1687,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>15</v>
@@ -1716,16 +1704,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>15</v>
@@ -1733,16 +1721,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>108</v>
@@ -1753,16 +1741,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>108</v>

--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E5CDE-BBD6-F543-8B28-7223B83899F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34627E8-04E2-3D44-9FE2-DFCCEA7A8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
   <si>
     <t>super</t>
   </si>
@@ -435,6 +435,51 @@
   </si>
   <si>
     <t>hasSequenceBounds</t>
+  </si>
+  <si>
+    <t>linkstoRegion</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Links to a region of an image</t>
+  </si>
+  <si>
+    <t>numprops: 1</t>
+  </si>
+  <si>
+    <t>hasLinkToImage</t>
+  </si>
+  <si>
+    <t>StillImageRepresentation</t>
+  </si>
+  <si>
+    <t>link to image</t>
+  </si>
+  <si>
+    <t>hasLinkToResource</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>hasLinkToArchiveRepresentation</t>
+  </si>
+  <si>
+    <t>ArchiveRepresentation</t>
+  </si>
+  <si>
+    <t>hasLinkToMovingImageRepesentation</t>
+  </si>
+  <si>
+    <t>MovingImageRepresentation</t>
+  </si>
+  <si>
+    <t>hasLinkToAudioRepesentation</t>
+  </si>
+  <si>
+    <t>AudioRepresentation</t>
   </si>
 </sst>
 </file>
@@ -836,9 +881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1598,44 +1643,120 @@
         <v>131</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">

--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34627E8-04E2-3D44-9FE2-DFCCEA7A8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B6E960-619A-664F-BC4C-5ADBDDF2679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -32,8 +32,349 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{978509E9-8AD2-BE44-98D5-C0FE259ADD2C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Unique identifier for the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EC6A4606-7409-954C-9140-53ECA108052E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Label of the property that will be displayed in DSP-APP. Should be rather short. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F8D67A8F-08C7-DE4B-866C-982BB56D4832}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Description of the property. Can be longer than the label.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A8A4E373-616E-AE4E-9524-7F48146A8905}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The type of this property, i.e. the base property/ies that this property is derived from. Must be one of the values listed in the documentation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>If more than one: separated by commas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C4C844C5-EEE4-A746-8A77-2CCA01A66AFD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Target value of this property. Must be one of the values listed in the documentation. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">If the property is derived from hasValue, the type of the property must be further specified by the object it takes, e.g. TextValue, ListValue, or IntValue. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>If the property is derived from hasLinkTo, the object specifies the resource class that this property refers to.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{DD3646EF-DFC1-9A4E-8B51-1AEEA3F3B048}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The graphic component, defines how this property should be displayed. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Depends on the value of "object". Read the documentation of the respective "object" to learn which "gui_element" can be used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F0C96432-453E-C548-BDF7-6227B1DB2565}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">only mandatory for lists
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Some "gui_elements" need further specification. Read the documentation of the respective "object" to learn if your "gui_element" needs a "gui_attributes".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Form: "attr: value, attr: value". </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="149">
   <si>
     <t>super</t>
   </si>
@@ -113,12 +454,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -161,12 +496,6 @@
     <t>You will have to arrange the affair with the curé of the village of ——."</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>comment_it</t>
   </si>
   <si>
@@ -377,9 +706,6 @@
     <t>hlist: status</t>
   </si>
   <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>comment_rm</t>
   </si>
   <si>
@@ -480,25 +806,34 @@
   </si>
   <si>
     <t>AudioRepresentation</t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>label_de</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>label_it</t>
+  </si>
+  <si>
+    <t>label_rm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -511,24 +846,43 @@
       <name val="Calibri (Textkörper)"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -542,32 +896,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{62E45FE5-1366-448C-9556-6A8FC585BB6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,12 +1230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,365 +1258,362 @@
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1"/>
-      <c r="Q1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O3" s="3"/>
       <c r="Q3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>123</v>
+      <c r="F6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
@@ -1273,22 +1622,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>15</v>
@@ -1299,38 +1648,39 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -1338,37 +1688,37 @@
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>21</v>
@@ -1376,327 +1726,330 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O14" s="3"/>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="L21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>136</v>
+      <c r="M21" t="s">
+        <v>130</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="L23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
+      <c r="M23" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>15</v>
@@ -1704,16 +2057,17 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="L24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>143</v>
+      <c r="M24" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>15</v>
@@ -1721,19 +2075,20 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>108</v>
+      <c r="M25" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>15</v>
@@ -1741,19 +2096,20 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>108</v>
+      <c r="M26" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>15</v>
@@ -1761,25 +2117,35 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1" location="super" display="type" xr:uid="{4413338A-BE04-BA43-B836-F391A99EB966}"/>
+    <hyperlink ref="N1" r:id="rId2" location="object-gui_element-gui_attributes" xr:uid="{8A3AE4C0-9A61-4B4F-970C-328AD2257AA7}"/>
+    <hyperlink ref="M1" r:id="rId3" location="object-gui_element-gui_attributes" xr:uid="{6658BB97-5767-0B42-8461-AD90937D905E}"/>
+    <hyperlink ref="O1" r:id="rId4" location="object-gui_element-gui_attributes" xr:uid="{59054785-EA75-3E46-8DB0-7CFCE108BC50}"/>
+    <hyperlink ref="G1" r:id="rId5" location="comments" xr:uid="{DFFA9885-64D7-3444-A769-3E146191E52C}"/>
+    <hyperlink ref="B1" r:id="rId6" location="labels" xr:uid="{D6BBAB09-29F4-FA4F-BED7-BF471B086BBB}"/>
+    <hyperlink ref="A1" r:id="rId7" location="name_1" xr:uid="{1BFD236D-A516-9B4C-8BE5-08044F848DDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B6E960-619A-664F-BC4C-5ADBDDF2679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60085DF-F7F5-804D-86EC-1AD4E9149133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -916,6 +916,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,7 +1236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1288,7 @@
       <c r="K1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -2136,7 +2137,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L1" r:id="rId1" location="super" display="type" xr:uid="{4413338A-BE04-BA43-B836-F391A99EB966}"/>
+    <hyperlink ref="L1" r:id="rId1" location="super" xr:uid="{4413338A-BE04-BA43-B836-F391A99EB966}"/>
     <hyperlink ref="N1" r:id="rId2" location="object-gui_element-gui_attributes" xr:uid="{8A3AE4C0-9A61-4B4F-970C-328AD2257AA7}"/>
     <hyperlink ref="M1" r:id="rId3" location="object-gui_element-gui_attributes" xr:uid="{6658BB97-5767-0B42-8461-AD90937D905E}"/>
     <hyperlink ref="O1" r:id="rId4" location="object-gui_element-gui_attributes" xr:uid="{59054785-EA75-3E46-8DB0-7CFCE108BC50}"/>

--- a/testdata/excel2json_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34627E8-04E2-3D44-9FE2-DFCCEA7A8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60085DF-F7F5-804D-86EC-1AD4E9149133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -32,8 +32,349 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{978509E9-8AD2-BE44-98D5-C0FE259ADD2C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Unique identifier for the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EC6A4606-7409-954C-9140-53ECA108052E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Label of the property that will be displayed in DSP-APP. Should be rather short. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F8D67A8F-08C7-DE4B-866C-982BB56D4832}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Description of the property. Can be longer than the label.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A8A4E373-616E-AE4E-9524-7F48146A8905}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The type of this property, i.e. the base property/ies that this property is derived from. Must be one of the values listed in the documentation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>If more than one: separated by commas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C4C844C5-EEE4-A746-8A77-2CCA01A66AFD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Target value of this property. Must be one of the values listed in the documentation. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">If the property is derived from hasValue, the type of the property must be further specified by the object it takes, e.g. TextValue, ListValue, or IntValue. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>If the property is derived from hasLinkTo, the object specifies the resource class that this property refers to.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{DD3646EF-DFC1-9A4E-8B51-1AEEA3F3B048}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The graphic component, defines how this property should be displayed. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Depends on the value of "object". Read the documentation of the respective "object" to learn which "gui_element" can be used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F0C96432-453E-C548-BDF7-6227B1DB2565}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">only mandatory for lists
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Some "gui_elements" need further specification. Read the documentation of the respective "object" to learn if your "gui_element" needs a "gui_attributes".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Form: "attr: value, attr: value". </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="149">
   <si>
     <t>super</t>
   </si>
@@ -113,12 +454,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -161,12 +496,6 @@
     <t>You will have to arrange the affair with the curé of the village of ——."</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>comment_it</t>
   </si>
   <si>
@@ -377,9 +706,6 @@
     <t>hlist: status</t>
   </si>
   <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>comment_rm</t>
   </si>
   <si>
@@ -480,25 +806,34 @@
   </si>
   <si>
     <t>AudioRepresentation</t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>label_de</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>label_it</t>
+  </si>
+  <si>
+    <t>label_rm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -511,24 +846,43 @@
       <name val="Calibri (Textkörper)"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -542,32 +896,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{62E45FE5-1366-448C-9556-6A8FC585BB6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,12 +1231,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,365 +1259,362 @@
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1"/>
-      <c r="Q1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O3" s="3"/>
       <c r="Q3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>123</v>
+      <c r="F6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
@@ -1273,22 +1623,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>15</v>
@@ -1299,38 +1649,39 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -1338,37 +1689,37 @@
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>21</v>
@@ -1376,327 +1727,330 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O14" s="3"/>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="L21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>136</v>
+      <c r="M21" t="s">
+        <v>130</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="L23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
+      <c r="M23" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>15</v>
@@ -1704,16 +2058,17 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="L24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>143</v>
+      <c r="M24" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>15</v>
@@ -1721,19 +2076,20 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>108</v>
+      <c r="M25" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>15</v>
@@ -1741,19 +2097,20 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>108</v>
+      <c r="M26" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>15</v>
@@ -1761,25 +2118,35 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1" location="super" xr:uid="{4413338A-BE04-BA43-B836-F391A99EB966}"/>
+    <hyperlink ref="N1" r:id="rId2" location="object-gui_element-gui_attributes" xr:uid="{8A3AE4C0-9A61-4B4F-970C-328AD2257AA7}"/>
+    <hyperlink ref="M1" r:id="rId3" location="object-gui_element-gui_attributes" xr:uid="{6658BB97-5767-0B42-8461-AD90937D905E}"/>
+    <hyperlink ref="O1" r:id="rId4" location="object-gui_element-gui_attributes" xr:uid="{59054785-EA75-3E46-8DB0-7CFCE108BC50}"/>
+    <hyperlink ref="G1" r:id="rId5" location="comments" xr:uid="{DFFA9885-64D7-3444-A769-3E146191E52C}"/>
+    <hyperlink ref="B1" r:id="rId6" location="labels" xr:uid="{D6BBAB09-29F4-FA4F-BED7-BF471B086BBB}"/>
+    <hyperlink ref="A1" r:id="rId7" location="name_1" xr:uid="{1BFD236D-A516-9B4C-8BE5-08044F848DDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>